--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H2">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N2">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q2">
-        <v>0.3329886410054418</v>
+        <v>0.6456010189644446</v>
       </c>
       <c r="R2">
-        <v>0.3329886410054418</v>
+        <v>5.810409170680001</v>
       </c>
       <c r="S2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="T2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H3">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N3">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q3">
-        <v>0.7752399831553169</v>
+        <v>1.293312518528889</v>
       </c>
       <c r="R3">
-        <v>0.7752399831553169</v>
+        <v>11.63981266676</v>
       </c>
       <c r="S3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="T3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.220828806799904</v>
+        <v>0.3616933333333334</v>
       </c>
       <c r="H4">
-        <v>0.220828806799904</v>
+        <v>1.08508</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,31 +679,155 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.45710433948401</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N4">
-        <v>2.45710433948401</v>
+        <v>0.061213</v>
       </c>
       <c r="O4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q4">
-        <v>0.5425994194711201</v>
+        <v>0.007380111337777779</v>
       </c>
       <c r="R4">
-        <v>0.5425994194711201</v>
+        <v>0.06642100204</v>
       </c>
       <c r="S4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="T4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3616933333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.08508</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.020115</v>
+      </c>
+      <c r="N5">
+        <v>0.060345</v>
+      </c>
+      <c r="O5">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P5">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q5">
+        <v>0.007275461400000001</v>
+      </c>
+      <c r="R5">
+        <v>0.06547915260000001</v>
+      </c>
+      <c r="S5">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="T5">
+        <v>0.002509592970594532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3616933333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.08508</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N6">
+        <v>7.842206</v>
+      </c>
+      <c r="O6">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P6">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q6">
+        <v>0.945491209608889</v>
+      </c>
+      <c r="R6">
+        <v>8.509420886480001</v>
+      </c>
+      <c r="S6">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="T6">
+        <v>0.3261371290339591</v>
       </c>
     </row>
   </sheetData>
